--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fbn1-Itga5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fbn1-Itga5.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>20.785713</v>
+        <v>14.2791755</v>
       </c>
       <c r="H2">
-        <v>41.571426</v>
+        <v>28.558351</v>
       </c>
       <c r="I2">
-        <v>0.05790803399871285</v>
+        <v>0.04272201646348869</v>
       </c>
       <c r="J2">
-        <v>0.04024709532822477</v>
+        <v>0.02938381530247614</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>47.464142</v>
+        <v>42.960745</v>
       </c>
       <c r="N2">
-        <v>94.928284</v>
+        <v>85.92149000000001</v>
       </c>
       <c r="O2">
-        <v>0.2242480928640021</v>
+        <v>0.1929389995390091</v>
       </c>
       <c r="P2">
-        <v>0.1646949584305047</v>
+        <v>0.1411745935894314</v>
       </c>
       <c r="Q2">
-        <v>986.5760334032461</v>
+        <v>613.4440174657476</v>
       </c>
       <c r="R2">
-        <v>3946.304133612985</v>
+        <v>2453.77606986299</v>
       </c>
       <c r="S2">
-        <v>0.01298576618571515</v>
+        <v>0.008242743114754585</v>
       </c>
       <c r="T2">
-        <v>0.006628493692030541</v>
+        <v>0.004148248183433983</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>20.785713</v>
+        <v>14.2791755</v>
       </c>
       <c r="H3">
-        <v>41.571426</v>
+        <v>28.558351</v>
       </c>
       <c r="I3">
-        <v>0.05790803399871285</v>
+        <v>0.04272201646348869</v>
       </c>
       <c r="J3">
-        <v>0.04024709532822477</v>
+        <v>0.02938381530247614</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>209.931938</v>
       </c>
       <c r="O3">
-        <v>0.3306133482671609</v>
+        <v>0.3142718473884727</v>
       </c>
       <c r="P3">
-        <v>0.364219496500593</v>
+        <v>0.3449318212311228</v>
       </c>
       <c r="Q3">
-        <v>1454.528337600598</v>
+        <v>999.2183285857063</v>
       </c>
       <c r="R3">
-        <v>8727.170025603589</v>
+        <v>5995.309971514239</v>
       </c>
       <c r="S3">
-        <v>0.01914516901188305</v>
+        <v>0.01342632703814134</v>
       </c>
       <c r="T3">
-        <v>0.0146587767960574</v>
+        <v>0.01013541292700203</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>20.785713</v>
+        <v>14.2791755</v>
       </c>
       <c r="H4">
-        <v>41.571426</v>
+        <v>28.558351</v>
       </c>
       <c r="I4">
-        <v>0.05790803399871285</v>
+        <v>0.04272201646348869</v>
       </c>
       <c r="J4">
-        <v>0.04024709532822477</v>
+        <v>0.02938381530247614</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>33.09063966666667</v>
+        <v>38.33270933333333</v>
       </c>
       <c r="N4">
-        <v>99.271919</v>
+        <v>114.998128</v>
       </c>
       <c r="O4">
-        <v>0.1563393442759357</v>
+        <v>0.1721542442616619</v>
       </c>
       <c r="P4">
-        <v>0.1722309082614559</v>
+        <v>0.1889494000155887</v>
       </c>
       <c r="Q4">
-        <v>687.8125390977491</v>
+        <v>547.3594839611548</v>
       </c>
       <c r="R4">
-        <v>4126.875234586494</v>
+        <v>3284.156903766928</v>
       </c>
       <c r="S4">
-        <v>0.009053304063667359</v>
+        <v>0.007354776457606174</v>
       </c>
       <c r="T4">
-        <v>0.006931793783265552</v>
+        <v>0.005552054271571741</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>20.785713</v>
+        <v>14.2791755</v>
       </c>
       <c r="H5">
-        <v>41.571426</v>
+        <v>28.558351</v>
       </c>
       <c r="I5">
-        <v>0.05790803399871285</v>
+        <v>0.04272201646348869</v>
       </c>
       <c r="J5">
-        <v>0.04024709532822477</v>
+        <v>0.02938381530247614</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.1245335</v>
+        <v>16.4153395</v>
       </c>
       <c r="N5">
-        <v>22.249067</v>
+        <v>32.830679</v>
       </c>
       <c r="O5">
-        <v>0.05255873837088856</v>
+        <v>0.07372216613615937</v>
       </c>
       <c r="P5">
-        <v>0.03860081537640052</v>
+        <v>0.05394293982902391</v>
       </c>
       <c r="Q5">
-        <v>231.2313605898856</v>
+        <v>234.3975136125823</v>
       </c>
       <c r="R5">
-        <v>924.9254423595422</v>
+        <v>937.5900544503291</v>
       </c>
       <c r="S5">
-        <v>0.003043573208510868</v>
+        <v>0.003149559595393049</v>
       </c>
       <c r="T5">
-        <v>0.001553570696201196</v>
+        <v>0.001585049380808622</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>20.785713</v>
+        <v>14.2791755</v>
       </c>
       <c r="H6">
-        <v>41.571426</v>
+        <v>28.558351</v>
       </c>
       <c r="I6">
-        <v>0.05790803399871285</v>
+        <v>0.04272201646348869</v>
       </c>
       <c r="J6">
-        <v>0.04024709532822477</v>
+        <v>0.02938381530247614</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>25.64998233333334</v>
+        <v>26.08950466666667</v>
       </c>
       <c r="N6">
-        <v>76.94994700000001</v>
+        <v>78.26851400000001</v>
       </c>
       <c r="O6">
-        <v>0.121185370215801</v>
+        <v>0.1171693584190632</v>
       </c>
       <c r="P6">
-        <v>0.1335036070218497</v>
+        <v>0.1286002565225384</v>
       </c>
       <c r="Q6">
-        <v>533.1531712357371</v>
+        <v>372.5366158434024</v>
       </c>
       <c r="R6">
-        <v>3198.919027414423</v>
+        <v>2235.219695060414</v>
       </c>
       <c r="S6">
-        <v>0.007017606538603207</v>
+        <v>0.005005711259395624</v>
       </c>
       <c r="T6">
-        <v>0.005373132398470243</v>
+        <v>0.003778766185509321</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>20.785713</v>
+        <v>14.2791755</v>
       </c>
       <c r="H7">
-        <v>41.571426</v>
+        <v>28.558351</v>
       </c>
       <c r="I7">
-        <v>0.05790803399871285</v>
+        <v>0.04272201646348869</v>
       </c>
       <c r="J7">
-        <v>0.04024709532822477</v>
+        <v>0.02938381530247614</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>24.35245633333333</v>
+        <v>28.889299</v>
       </c>
       <c r="N7">
-        <v>73.05736899999999</v>
+        <v>86.66789700000001</v>
       </c>
       <c r="O7">
-        <v>0.1150551060062118</v>
+        <v>0.1297433842556338</v>
       </c>
       <c r="P7">
-        <v>0.126750214409196</v>
+        <v>0.1424009888122948</v>
       </c>
       <c r="Q7">
-        <v>506.183168189699</v>
+        <v>412.5153704929746</v>
       </c>
       <c r="R7">
-        <v>3037.099009138194</v>
+        <v>2475.092222957847</v>
       </c>
       <c r="S7">
-        <v>0.006662614990333224</v>
+        <v>0.005542898998197925</v>
       </c>
       <c r="T7">
-        <v>0.005101327962199838</v>
+        <v>0.004184284354150441</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>909.2064820000001</v>
       </c>
       <c r="I8">
-        <v>0.8443357202694322</v>
+        <v>0.9067548354528507</v>
       </c>
       <c r="J8">
-        <v>0.880242115199365</v>
+        <v>0.9354866231212752</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>47.464142</v>
+        <v>42.960745</v>
       </c>
       <c r="N8">
-        <v>94.928284</v>
+        <v>85.92149000000001</v>
       </c>
       <c r="O8">
-        <v>0.2242480928640021</v>
+        <v>0.1929389995390091</v>
       </c>
       <c r="P8">
-        <v>0.1646949584305047</v>
+        <v>0.1411745935894314</v>
       </c>
       <c r="Q8">
-        <v>14384.90185632281</v>
+        <v>13020.06260851636</v>
       </c>
       <c r="R8">
-        <v>86309.4111379369</v>
+        <v>78120.37565109819</v>
       </c>
       <c r="S8">
-        <v>0.1893406750073738</v>
+        <v>0.1749483707794318</v>
       </c>
       <c r="T8">
-        <v>0.144971438571539</v>
+        <v>0.1320669438274956</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>909.2064820000001</v>
       </c>
       <c r="I9">
-        <v>0.8443357202694322</v>
+        <v>0.9067548354528507</v>
       </c>
       <c r="J9">
-        <v>0.880242115199365</v>
+        <v>0.9354866231212752</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>209.931938</v>
       </c>
       <c r="O9">
-        <v>0.3306133482671609</v>
+        <v>0.3142718473884727</v>
       </c>
       <c r="P9">
-        <v>0.364219496500593</v>
+        <v>0.3449318212311228</v>
       </c>
       <c r="Q9">
         <v>21207.94208982468</v>
@@ -1013,10 +1013,10 @@
         <v>190871.4788084221</v>
       </c>
       <c r="S9">
-        <v>0.2791486595398419</v>
+        <v>0.284967517266198</v>
       </c>
       <c r="T9">
-        <v>0.3206013399965297</v>
+        <v>0.3226791046505744</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>909.2064820000001</v>
       </c>
       <c r="I10">
-        <v>0.8443357202694322</v>
+        <v>0.9067548354528507</v>
       </c>
       <c r="J10">
-        <v>0.880242115199365</v>
+        <v>0.9354866231212752</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>33.09063966666667</v>
+        <v>38.33270933333333</v>
       </c>
       <c r="N10">
-        <v>99.271919</v>
+        <v>114.998128</v>
       </c>
       <c r="O10">
-        <v>0.1563393442759357</v>
+        <v>0.1721542442616619</v>
       </c>
       <c r="P10">
-        <v>0.1722309082614559</v>
+        <v>0.1889494000155887</v>
       </c>
       <c r="Q10">
-        <v>10028.74135948655</v>
+        <v>11617.44926616286</v>
       </c>
       <c r="R10">
-        <v>90258.67223537897</v>
+        <v>104557.0433954657</v>
       </c>
       <c r="S10">
-        <v>0.1320028928556729</v>
+        <v>0.1561016934279931</v>
       </c>
       <c r="T10">
-        <v>0.1516048989907718</v>
+        <v>0.1767596361613741</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>909.2064820000001</v>
       </c>
       <c r="I11">
-        <v>0.8443357202694322</v>
+        <v>0.9067548354528507</v>
       </c>
       <c r="J11">
-        <v>0.880242115199365</v>
+        <v>0.9354866231212752</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>11.1245335</v>
+        <v>16.4153395</v>
       </c>
       <c r="N11">
-        <v>22.249067</v>
+        <v>32.830679</v>
       </c>
       <c r="O11">
-        <v>0.05255873837088856</v>
+        <v>0.07372216613615937</v>
       </c>
       <c r="P11">
-        <v>0.03860081537640052</v>
+        <v>0.05394293982902391</v>
       </c>
       <c r="Q11">
-        <v>3371.499322475383</v>
+        <v>4974.977692543547</v>
       </c>
       <c r="R11">
-        <v>20228.9959348523</v>
+        <v>29849.86615526128</v>
       </c>
       <c r="S11">
-        <v>0.04437722021883683</v>
+        <v>0.06684793062402092</v>
       </c>
       <c r="T11">
-        <v>0.03397806337534297</v>
+        <v>0.05046289862188771</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>909.2064820000001</v>
       </c>
       <c r="I12">
-        <v>0.8443357202694322</v>
+        <v>0.9067548354528507</v>
       </c>
       <c r="J12">
-        <v>0.880242115199365</v>
+        <v>0.9354866231212752</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>25.64998233333334</v>
+        <v>26.08950466666667</v>
       </c>
       <c r="N12">
-        <v>76.94994700000001</v>
+        <v>78.26851400000001</v>
       </c>
       <c r="O12">
-        <v>0.121185370215801</v>
+        <v>0.1171693584190632</v>
       </c>
       <c r="P12">
-        <v>0.1335036070218497</v>
+        <v>0.1286002565225384</v>
       </c>
       <c r="Q12">
-        <v>7773.710066884051</v>
+        <v>7906.915585034195</v>
       </c>
       <c r="R12">
-        <v>69963.39060195646</v>
+        <v>71162.24026530776</v>
       </c>
       <c r="S12">
-        <v>0.1023211368472761</v>
+        <v>0.1062438823133937</v>
       </c>
       <c r="T12">
-        <v>0.1175154974316578</v>
+        <v>0.1203038197067992</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>909.2064820000001</v>
       </c>
       <c r="I13">
-        <v>0.8443357202694322</v>
+        <v>0.9067548354528507</v>
       </c>
       <c r="J13">
-        <v>0.880242115199365</v>
+        <v>0.9354866231212752</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>24.35245633333333</v>
+        <v>28.889299</v>
       </c>
       <c r="N13">
-        <v>73.05736899999999</v>
+        <v>86.66789700000001</v>
       </c>
       <c r="O13">
-        <v>0.1150551060062118</v>
+        <v>0.1297433842556338</v>
       </c>
       <c r="P13">
-        <v>0.126750214409196</v>
+        <v>0.1424009888122948</v>
       </c>
       <c r="Q13">
-        <v>7380.470383629539</v>
+        <v>8755.44597041204</v>
       </c>
       <c r="R13">
-        <v>66424.23345266585</v>
+        <v>78799.01373370837</v>
       </c>
       <c r="S13">
-        <v>0.09714513580043072</v>
+        <v>0.1176454410418132</v>
       </c>
       <c r="T13">
-        <v>0.1115708768335237</v>
+        <v>0.1332142201531441</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.201937</v>
+        <v>0.2279616666666666</v>
       </c>
       <c r="H14">
-        <v>0.605811</v>
+        <v>0.683885</v>
       </c>
       <c r="I14">
-        <v>0.000562587131920761</v>
+        <v>0.0006820409257087465</v>
       </c>
       <c r="J14">
-        <v>0.0005865118282901139</v>
+        <v>0.0007036523407158168</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>47.464142</v>
+        <v>42.960745</v>
       </c>
       <c r="N14">
-        <v>94.928284</v>
+        <v>85.92149000000001</v>
       </c>
       <c r="O14">
-        <v>0.2242480928640021</v>
+        <v>0.1929389995390091</v>
       </c>
       <c r="P14">
-        <v>0.1646949584305047</v>
+        <v>0.1411745935894314</v>
       </c>
       <c r="Q14">
-        <v>9.584766443054001</v>
+        <v>9.793403031441667</v>
       </c>
       <c r="R14">
-        <v>57.508598658324</v>
+        <v>58.76041818865</v>
       </c>
       <c r="S14">
-        <v>0.0001261590914030594</v>
+        <v>0.0001315922938509052</v>
       </c>
       <c r="T14">
-        <v>9.659554117923964E-05</v>
+        <v>9.933783322880754E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.201937</v>
+        <v>0.2279616666666666</v>
       </c>
       <c r="H15">
-        <v>0.605811</v>
+        <v>0.683885</v>
       </c>
       <c r="I15">
-        <v>0.000562587131920761</v>
+        <v>0.0006820409257087465</v>
       </c>
       <c r="J15">
-        <v>0.0005865118282901139</v>
+        <v>0.0007036523407158168</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>209.931938</v>
       </c>
       <c r="O15">
-        <v>0.3306133482671609</v>
+        <v>0.3142718473884727</v>
       </c>
       <c r="P15">
-        <v>0.364219496500593</v>
+        <v>0.3449318212311228</v>
       </c>
       <c r="Q15">
-        <v>14.13100858796867</v>
+        <v>15.95214482434777</v>
       </c>
       <c r="R15">
-        <v>127.179077291718</v>
+        <v>143.56930341913</v>
       </c>
       <c r="S15">
-        <v>0.0001859988153763417</v>
+        <v>0.0002143462617170319</v>
       </c>
       <c r="T15">
-        <v>0.0002136190427914675</v>
+        <v>0.0002427120833966492</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.201937</v>
+        <v>0.2279616666666666</v>
       </c>
       <c r="H16">
-        <v>0.605811</v>
+        <v>0.683885</v>
       </c>
       <c r="I16">
-        <v>0.000562587131920761</v>
+        <v>0.0006820409257087465</v>
       </c>
       <c r="J16">
-        <v>0.0005865118282901139</v>
+        <v>0.0007036523407158168</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>33.09063966666667</v>
+        <v>38.33270933333333</v>
       </c>
       <c r="N16">
-        <v>99.271919</v>
+        <v>114.998128</v>
       </c>
       <c r="O16">
-        <v>0.1563393442759357</v>
+        <v>0.1721542442616619</v>
       </c>
       <c r="P16">
-        <v>0.1722309082614559</v>
+        <v>0.1889494000155887</v>
       </c>
       <c r="Q16">
-        <v>6.682224502367667</v>
+        <v>8.738388307475555</v>
       </c>
       <c r="R16">
-        <v>60.140020521309</v>
+        <v>78.64549476728</v>
       </c>
       <c r="S16">
-        <v>8.795450330257112E-05</v>
+        <v>0.0001174162401209135</v>
       </c>
       <c r="T16">
-        <v>0.0001010154648924934</v>
+        <v>0.0001329546875978182</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.201937</v>
+        <v>0.2279616666666666</v>
       </c>
       <c r="H17">
-        <v>0.605811</v>
+        <v>0.683885</v>
       </c>
       <c r="I17">
-        <v>0.000562587131920761</v>
+        <v>0.0006820409257087465</v>
       </c>
       <c r="J17">
-        <v>0.0005865118282901139</v>
+        <v>0.0007036523407158168</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>11.1245335</v>
+        <v>16.4153395</v>
       </c>
       <c r="N17">
-        <v>22.249067</v>
+        <v>32.830679</v>
       </c>
       <c r="O17">
-        <v>0.05255873837088856</v>
+        <v>0.07372216613615937</v>
       </c>
       <c r="P17">
-        <v>0.03860081537640052</v>
+        <v>0.05394293982902391</v>
       </c>
       <c r="Q17">
-        <v>2.246454921389501</v>
+        <v>3.742068151319167</v>
       </c>
       <c r="R17">
-        <v>13.478729528337</v>
+        <v>22.452408907915</v>
       </c>
       <c r="S17">
-        <v>2.956886987745184E-05</v>
+        <v>5.028153443676013E-05</v>
       </c>
       <c r="T17">
-        <v>2.263983479990181E-05</v>
+        <v>3.795707587578514E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.201937</v>
+        <v>0.2279616666666666</v>
       </c>
       <c r="H18">
-        <v>0.605811</v>
+        <v>0.683885</v>
       </c>
       <c r="I18">
-        <v>0.000562587131920761</v>
+        <v>0.0006820409257087465</v>
       </c>
       <c r="J18">
-        <v>0.0005865118282901139</v>
+        <v>0.0007036523407158168</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>25.64998233333334</v>
+        <v>26.08950466666667</v>
       </c>
       <c r="N18">
-        <v>76.94994700000001</v>
+        <v>78.26851400000001</v>
       </c>
       <c r="O18">
-        <v>0.121185370215801</v>
+        <v>0.1171693584190632</v>
       </c>
       <c r="P18">
-        <v>0.1335036070218497</v>
+        <v>0.1286002565225384</v>
       </c>
       <c r="Q18">
-        <v>5.179680482446335</v>
+        <v>5.947406966321111</v>
       </c>
       <c r="R18">
-        <v>46.61712434201701</v>
+        <v>53.52666269689001</v>
       </c>
       <c r="S18">
-        <v>6.817732986046309E-05</v>
+        <v>7.991429768083775E-05</v>
       </c>
       <c r="T18">
-        <v>7.830144463770996E-05</v>
+        <v>9.048987151873865E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.201937</v>
+        <v>0.2279616666666666</v>
       </c>
       <c r="H19">
-        <v>0.605811</v>
+        <v>0.683885</v>
       </c>
       <c r="I19">
-        <v>0.000562587131920761</v>
+        <v>0.0006820409257087465</v>
       </c>
       <c r="J19">
-        <v>0.0005865118282901139</v>
+        <v>0.0007036523407158168</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>24.35245633333333</v>
+        <v>28.889299</v>
       </c>
       <c r="N19">
-        <v>73.05736899999999</v>
+        <v>86.66789700000001</v>
       </c>
       <c r="O19">
-        <v>0.1150551060062118</v>
+        <v>0.1297433842556338</v>
       </c>
       <c r="P19">
-        <v>0.126750214409196</v>
+        <v>0.1424009888122948</v>
       </c>
       <c r="Q19">
-        <v>4.917661974584333</v>
+        <v>6.585652748871667</v>
       </c>
       <c r="R19">
-        <v>44.258957771259</v>
+        <v>59.27087473984501</v>
       </c>
       <c r="S19">
-        <v>6.472852210087383E-05</v>
+        <v>8.849029790229805E-05</v>
       </c>
       <c r="T19">
-        <v>7.434049998930145E-05</v>
+        <v>0.0001002007890980181</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>23.139818</v>
+        <v>16.5170655</v>
       </c>
       <c r="H20">
-        <v>46.279636</v>
+        <v>33.034131</v>
       </c>
       <c r="I20">
-        <v>0.06446646152903332</v>
+        <v>0.04941758326449038</v>
       </c>
       <c r="J20">
-        <v>0.04480531704270965</v>
+        <v>0.03398896539866049</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>47.464142</v>
+        <v>42.960745</v>
       </c>
       <c r="N20">
-        <v>94.928284</v>
+        <v>85.92149000000001</v>
       </c>
       <c r="O20">
-        <v>0.2242480928640021</v>
+        <v>0.1929389995390091</v>
       </c>
       <c r="P20">
-        <v>0.1646949584305047</v>
+        <v>0.1411745935894314</v>
       </c>
       <c r="Q20">
-        <v>1098.311607406156</v>
+        <v>709.5854390937976</v>
       </c>
       <c r="R20">
-        <v>4393.246429624624</v>
+        <v>2838.34175637519</v>
       </c>
       <c r="S20">
-        <v>0.01445648105157629</v>
+        <v>0.009534579074686455</v>
       </c>
       <c r="T20">
-        <v>0.007379209827814651</v>
+        <v>0.00479837837668114</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>23.139818</v>
+        <v>16.5170655</v>
       </c>
       <c r="H21">
-        <v>46.279636</v>
+        <v>33.034131</v>
       </c>
       <c r="I21">
-        <v>0.06446646152903332</v>
+        <v>0.04941758326449038</v>
       </c>
       <c r="J21">
-        <v>0.04480531704270965</v>
+        <v>0.03398896539866049</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>209.931938</v>
       </c>
       <c r="O21">
-        <v>0.3306133482671609</v>
+        <v>0.3142718473884727</v>
       </c>
       <c r="P21">
-        <v>0.364219496500593</v>
+        <v>0.3449318212311228</v>
       </c>
       <c r="Q21">
-        <v>1619.262279235761</v>
+        <v>1155.819856829313</v>
       </c>
       <c r="R21">
-        <v>9715.573675414569</v>
+        <v>6934.919140975879</v>
       </c>
       <c r="S21">
-        <v>0.02131347269704982</v>
+        <v>0.01553055518600507</v>
       </c>
       <c r="T21">
-        <v>0.01631897001384515</v>
+        <v>0.01172387573672158</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>23.139818</v>
+        <v>16.5170655</v>
       </c>
       <c r="H22">
-        <v>46.279636</v>
+        <v>33.034131</v>
       </c>
       <c r="I22">
-        <v>0.06446646152903332</v>
+        <v>0.04941758326449038</v>
       </c>
       <c r="J22">
-        <v>0.04480531704270965</v>
+        <v>0.03398896539866049</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>33.09063966666667</v>
+        <v>38.33270933333333</v>
       </c>
       <c r="N22">
-        <v>99.271919</v>
+        <v>114.998128</v>
       </c>
       <c r="O22">
-        <v>0.1563393442759357</v>
+        <v>0.1721542442616619</v>
       </c>
       <c r="P22">
-        <v>0.1722309082614559</v>
+        <v>0.1889494000155887</v>
       </c>
       <c r="Q22">
-        <v>765.7113793902474</v>
+        <v>633.1438708511281</v>
       </c>
       <c r="R22">
-        <v>4594.268276341484</v>
+        <v>3798.863225106768</v>
       </c>
       <c r="S22">
-        <v>0.01007864432323891</v>
+        <v>0.008507446700136092</v>
       </c>
       <c r="T22">
-        <v>0.007716860449208373</v>
+        <v>0.006422194619227505</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>23.139818</v>
+        <v>16.5170655</v>
       </c>
       <c r="H23">
-        <v>46.279636</v>
+        <v>33.034131</v>
       </c>
       <c r="I23">
-        <v>0.06446646152903332</v>
+        <v>0.04941758326449038</v>
       </c>
       <c r="J23">
-        <v>0.04480531704270965</v>
+        <v>0.03398896539866049</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>11.1245335</v>
+        <v>16.4153395</v>
       </c>
       <c r="N23">
-        <v>22.249067</v>
+        <v>32.830679</v>
       </c>
       <c r="O23">
-        <v>0.05255873837088856</v>
+        <v>0.07372216613615937</v>
       </c>
       <c r="P23">
-        <v>0.03860081537640052</v>
+        <v>0.05394293982902391</v>
       </c>
       <c r="Q23">
-        <v>257.4196805249031</v>
+        <v>271.1332377262373</v>
       </c>
       <c r="R23">
-        <v>1029.678722099612</v>
+        <v>1084.532950904949</v>
       </c>
       <c r="S23">
-        <v>0.003388275885201414</v>
+        <v>0.003643171283472249</v>
       </c>
       <c r="T23">
-        <v>0.001729521771046727</v>
+        <v>0.001833464715350718</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>23.139818</v>
+        <v>16.5170655</v>
       </c>
       <c r="H24">
-        <v>46.279636</v>
+        <v>33.034131</v>
       </c>
       <c r="I24">
-        <v>0.06446646152903332</v>
+        <v>0.04941758326449038</v>
       </c>
       <c r="J24">
-        <v>0.04480531704270965</v>
+        <v>0.03398896539866049</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>25.64998233333334</v>
+        <v>26.08950466666667</v>
       </c>
       <c r="N24">
-        <v>76.94994700000001</v>
+        <v>78.26851400000001</v>
       </c>
       <c r="O24">
-        <v>0.121185370215801</v>
+        <v>0.1171693584190632</v>
       </c>
       <c r="P24">
-        <v>0.1335036070218497</v>
+        <v>0.1286002565225384</v>
       </c>
       <c r="Q24">
-        <v>593.5359228965488</v>
+        <v>430.9220574418891</v>
       </c>
       <c r="R24">
-        <v>3561.215537379293</v>
+        <v>2585.532344651334</v>
       </c>
       <c r="S24">
-        <v>0.007812392006898594</v>
+        <v>0.005790226525720972</v>
       </c>
       <c r="T24">
-        <v>0.005981671438959294</v>
+        <v>0.004370989669203421</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>23.139818</v>
+        <v>16.5170655</v>
       </c>
       <c r="H25">
-        <v>46.279636</v>
+        <v>33.034131</v>
       </c>
       <c r="I25">
-        <v>0.06446646152903332</v>
+        <v>0.04941758326449038</v>
       </c>
       <c r="J25">
-        <v>0.04480531704270965</v>
+        <v>0.03398896539866049</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>24.35245633333333</v>
+        <v>28.889299</v>
       </c>
       <c r="N25">
-        <v>73.05736899999999</v>
+        <v>86.66789700000001</v>
       </c>
       <c r="O25">
-        <v>0.1150551060062118</v>
+        <v>0.1297433842556338</v>
       </c>
       <c r="P25">
-        <v>0.126750214409196</v>
+        <v>0.1424009888122948</v>
       </c>
       <c r="Q25">
-        <v>563.5114074062807</v>
+        <v>477.1664438320846</v>
       </c>
       <c r="R25">
-        <v>3381.068444437684</v>
+        <v>2862.998662992507</v>
       </c>
       <c r="S25">
-        <v>0.007417195565068303</v>
+        <v>0.006411604494469552</v>
       </c>
       <c r="T25">
-        <v>0.005679083541835449</v>
+        <v>0.004840062281476127</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>11.297097</v>
+        <v>0.05416466666666667</v>
       </c>
       <c r="H26">
-        <v>33.891291</v>
+        <v>0.162494</v>
       </c>
       <c r="I26">
-        <v>0.03147318916424743</v>
+        <v>0.0001620558400639246</v>
       </c>
       <c r="J26">
-        <v>0.03281162449596042</v>
+        <v>0.0001671908046707794</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>47.464142</v>
+        <v>42.960745</v>
       </c>
       <c r="N26">
-        <v>94.928284</v>
+        <v>85.92149000000001</v>
       </c>
       <c r="O26">
-        <v>0.2242480928640021</v>
+        <v>0.1929389995390091</v>
       </c>
       <c r="P26">
-        <v>0.1646949584305047</v>
+        <v>0.1411745935894314</v>
       </c>
       <c r="Q26">
-        <v>536.207016195774</v>
+        <v>2.326954432676667</v>
       </c>
       <c r="R26">
-        <v>3217.242097174644</v>
+        <v>13.96172659606</v>
       </c>
       <c r="S26">
-        <v>0.007057802646430462</v>
+        <v>3.126689165138728E-05</v>
       </c>
       <c r="T26">
-        <v>0.005403909132399532</v>
+        <v>2.360309390128728E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>11.297097</v>
+        <v>0.05416466666666667</v>
       </c>
       <c r="H27">
-        <v>33.891291</v>
+        <v>0.162494</v>
       </c>
       <c r="I27">
-        <v>0.03147318916424743</v>
+        <v>0.0001620558400639246</v>
       </c>
       <c r="J27">
-        <v>0.03281162449596042</v>
+        <v>0.0001671908046707794</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>209.931938</v>
       </c>
       <c r="O27">
-        <v>0.3306133482671609</v>
+        <v>0.3142718473884727</v>
       </c>
       <c r="P27">
-        <v>0.364219496500593</v>
+        <v>0.3449318212311228</v>
       </c>
       <c r="Q27">
-        <v>790.5404889946619</v>
+        <v>3.790297814819111</v>
       </c>
       <c r="R27">
-        <v>7114.864400951957</v>
+        <v>34.112680333372</v>
       </c>
       <c r="S27">
-        <v>0.01040545645023757</v>
+        <v>5.092958823698046E-05</v>
       </c>
       <c r="T27">
-        <v>0.01195063335328523</v>
+        <v>5.766942874818883E-05</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>11.297097</v>
+        <v>0.05416466666666667</v>
       </c>
       <c r="H28">
-        <v>33.891291</v>
+        <v>0.162494</v>
       </c>
       <c r="I28">
-        <v>0.03147318916424743</v>
+        <v>0.0001620558400639246</v>
       </c>
       <c r="J28">
-        <v>0.03281162449596042</v>
+        <v>0.0001671908046707794</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>33.09063966666667</v>
+        <v>38.33270933333333</v>
       </c>
       <c r="N28">
-        <v>99.271919</v>
+        <v>114.998128</v>
       </c>
       <c r="O28">
-        <v>0.1563393442759357</v>
+        <v>0.1721542442616619</v>
       </c>
       <c r="P28">
-        <v>0.1722309082614559</v>
+        <v>0.1889494000155887</v>
       </c>
       <c r="Q28">
-        <v>373.828166106381</v>
+        <v>2.076278423470222</v>
       </c>
       <c r="R28">
-        <v>3364.453494957429</v>
+        <v>18.686505811232</v>
       </c>
       <c r="S28">
-        <v>0.004920497756210927</v>
+        <v>2.789860067439369E-05</v>
       </c>
       <c r="T28">
-        <v>0.005651175888473099</v>
+        <v>3.159060223066725E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>11.297097</v>
+        <v>0.05416466666666667</v>
       </c>
       <c r="H29">
-        <v>33.891291</v>
+        <v>0.162494</v>
       </c>
       <c r="I29">
-        <v>0.03147318916424743</v>
+        <v>0.0001620558400639246</v>
       </c>
       <c r="J29">
-        <v>0.03281162449596042</v>
+        <v>0.0001671908046707794</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>11.1245335</v>
+        <v>16.4153395</v>
       </c>
       <c r="N29">
-        <v>22.249067</v>
+        <v>32.830679</v>
       </c>
       <c r="O29">
-        <v>0.05255873837088856</v>
+        <v>0.07372216613615937</v>
       </c>
       <c r="P29">
-        <v>0.03860081537640052</v>
+        <v>0.05394293982902391</v>
       </c>
       <c r="Q29">
-        <v>125.6749340292495</v>
+        <v>0.8891313922376668</v>
       </c>
       <c r="R29">
-        <v>754.0496041754971</v>
+        <v>5.334788353426001</v>
       </c>
       <c r="S29">
-        <v>0.001654191114981165</v>
+        <v>1.194710756452752E-05</v>
       </c>
       <c r="T29">
-        <v>0.001266555459368349</v>
+        <v>9.018763516321941E-06</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>11.297097</v>
+        <v>0.05416466666666667</v>
       </c>
       <c r="H30">
-        <v>33.891291</v>
+        <v>0.162494</v>
       </c>
       <c r="I30">
-        <v>0.03147318916424743</v>
+        <v>0.0001620558400639246</v>
       </c>
       <c r="J30">
-        <v>0.03281162449596042</v>
+        <v>0.0001671908046707794</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>25.64998233333334</v>
+        <v>26.08950466666667</v>
       </c>
       <c r="N30">
-        <v>76.94994700000001</v>
+        <v>78.26851400000001</v>
       </c>
       <c r="O30">
-        <v>0.121185370215801</v>
+        <v>0.1171693584190632</v>
       </c>
       <c r="P30">
-        <v>0.1335036070218497</v>
+        <v>0.1286002565225384</v>
       </c>
       <c r="Q30">
-        <v>289.770338467953</v>
+        <v>1.413129323768445</v>
       </c>
       <c r="R30">
-        <v>2607.933046211577</v>
+        <v>12.718163913916</v>
       </c>
       <c r="S30">
-        <v>0.00381409008074126</v>
+        <v>1.898797880835236E-05</v>
       </c>
       <c r="T30">
-        <v>0.004380470222457197</v>
+        <v>2.150078036887184E-05</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G31">
-        <v>11.297097</v>
+        <v>0.05416466666666667</v>
       </c>
       <c r="H31">
-        <v>33.891291</v>
+        <v>0.162494</v>
       </c>
       <c r="I31">
-        <v>0.03147318916424743</v>
+        <v>0.0001620558400639246</v>
       </c>
       <c r="J31">
-        <v>0.03281162449596042</v>
+        <v>0.0001671908046707794</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>24.35245633333333</v>
+        <v>28.889299</v>
       </c>
       <c r="N31">
-        <v>73.05736899999999</v>
+        <v>86.66789700000001</v>
       </c>
       <c r="O31">
-        <v>0.1150551060062118</v>
+        <v>0.1297433842556338</v>
       </c>
       <c r="P31">
-        <v>0.126750214409196</v>
+        <v>0.1424009888122948</v>
       </c>
       <c r="Q31">
-        <v>275.112061385931</v>
+        <v>1.564779250568667</v>
       </c>
       <c r="R31">
-        <v>2476.008552473379</v>
+        <v>14.083013255118</v>
       </c>
       <c r="S31">
-        <v>0.003621151115646044</v>
+        <v>2.10256731282833E-05</v>
       </c>
       <c r="T31">
-        <v>0.004158880439977009</v>
+        <v>2.380813590544222E-05</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>0.450118</v>
+        <v>0.08739166666666666</v>
       </c>
       <c r="H32">
-        <v>1.350354</v>
+        <v>0.262175</v>
       </c>
       <c r="I32">
-        <v>0.001254007906653605</v>
+        <v>0.0002614680533974142</v>
       </c>
       <c r="J32">
-        <v>0.001307336105450162</v>
+        <v>0.0002697530322015679</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>47.464142</v>
+        <v>42.960745</v>
       </c>
       <c r="N32">
-        <v>94.928284</v>
+        <v>85.92149000000001</v>
       </c>
       <c r="O32">
-        <v>0.2242480928640021</v>
+        <v>0.1929389995390091</v>
       </c>
       <c r="P32">
-        <v>0.1646949584305047</v>
+        <v>0.1411745935894314</v>
       </c>
       <c r="Q32">
-        <v>21.364464668756</v>
+        <v>3.754411106791667</v>
       </c>
       <c r="R32">
-        <v>128.186788012536</v>
+        <v>22.52646664075</v>
       </c>
       <c r="S32">
-        <v>0.0002812088815034506</v>
+        <v>5.044738463390931E-05</v>
       </c>
       <c r="T32">
-        <v>0.0002153116655418125</v>
+        <v>3.808227469057315E-05</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>0.450118</v>
+        <v>0.08739166666666666</v>
       </c>
       <c r="H33">
-        <v>1.350354</v>
+        <v>0.262175</v>
       </c>
       <c r="I33">
-        <v>0.001254007906653605</v>
+        <v>0.0002614680533974142</v>
       </c>
       <c r="J33">
-        <v>0.001307336105450162</v>
+        <v>0.0002697530322015679</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>209.931938</v>
       </c>
       <c r="O33">
-        <v>0.3306133482671609</v>
+        <v>0.3142718473884727</v>
       </c>
       <c r="P33">
-        <v>0.364219496500593</v>
+        <v>0.3449318212311228</v>
       </c>
       <c r="Q33">
-        <v>31.49804802289466</v>
+        <v>6.115433982794444</v>
       </c>
       <c r="R33">
-        <v>283.482432206052</v>
+        <v>55.03890584515</v>
       </c>
       <c r="S33">
-        <v>0.0004145917527722417</v>
+        <v>8.21720481742732E-05</v>
       </c>
       <c r="T33">
-        <v>0.0004761572980841043</v>
+        <v>9.304640467990453E-05</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>0.450118</v>
+        <v>0.08739166666666666</v>
       </c>
       <c r="H34">
-        <v>1.350354</v>
+        <v>0.262175</v>
       </c>
       <c r="I34">
-        <v>0.001254007906653605</v>
+        <v>0.0002614680533974142</v>
       </c>
       <c r="J34">
-        <v>0.001307336105450162</v>
+        <v>0.0002697530322015679</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>33.09063966666667</v>
+        <v>38.33270933333333</v>
       </c>
       <c r="N34">
-        <v>99.271919</v>
+        <v>114.998128</v>
       </c>
       <c r="O34">
-        <v>0.1563393442759357</v>
+        <v>0.1721542442616619</v>
       </c>
       <c r="P34">
-        <v>0.1722309082614559</v>
+        <v>0.1889494000155887</v>
       </c>
       <c r="Q34">
-        <v>14.89469254548067</v>
+        <v>3.349959356488889</v>
       </c>
       <c r="R34">
-        <v>134.052232909326</v>
+        <v>30.1496342084</v>
       </c>
       <c r="S34">
-        <v>0.0001960507738430634</v>
+        <v>4.50128351311997E-05</v>
       </c>
       <c r="T34">
-        <v>0.000225163684844676</v>
+        <v>5.096967358687205E-05</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>0.450118</v>
+        <v>0.08739166666666666</v>
       </c>
       <c r="H35">
-        <v>1.350354</v>
+        <v>0.262175</v>
       </c>
       <c r="I35">
-        <v>0.001254007906653605</v>
+        <v>0.0002614680533974142</v>
       </c>
       <c r="J35">
-        <v>0.001307336105450162</v>
+        <v>0.0002697530322015679</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>11.1245335</v>
+        <v>16.4153395</v>
       </c>
       <c r="N35">
-        <v>22.249067</v>
+        <v>32.830679</v>
       </c>
       <c r="O35">
-        <v>0.05255873837088856</v>
+        <v>0.07372216613615937</v>
       </c>
       <c r="P35">
-        <v>0.03860081537640052</v>
+        <v>0.05394293982902391</v>
       </c>
       <c r="Q35">
-        <v>5.007352769953</v>
+        <v>1.434563877804167</v>
       </c>
       <c r="R35">
-        <v>30.044116619718</v>
+        <v>8.607383266825</v>
       </c>
       <c r="S35">
-        <v>6.590907348083247E-05</v>
+        <v>1.927599127186236E-05</v>
       </c>
       <c r="T35">
-        <v>5.04642396413842E-05</v>
+        <v>1.455127158474593E-05</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>0.450118</v>
+        <v>0.08739166666666666</v>
       </c>
       <c r="H36">
-        <v>1.350354</v>
+        <v>0.262175</v>
       </c>
       <c r="I36">
-        <v>0.001254007906653605</v>
+        <v>0.0002614680533974142</v>
       </c>
       <c r="J36">
-        <v>0.001307336105450162</v>
+        <v>0.0002697530322015679</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>25.64998233333334</v>
+        <v>26.08950466666667</v>
       </c>
       <c r="N36">
-        <v>76.94994700000001</v>
+        <v>78.26851400000001</v>
       </c>
       <c r="O36">
-        <v>0.121185370215801</v>
+        <v>0.1171693584190632</v>
       </c>
       <c r="P36">
-        <v>0.1335036070218497</v>
+        <v>0.1286002565225384</v>
       </c>
       <c r="Q36">
-        <v>11.54551874791533</v>
+        <v>2.280005295327778</v>
       </c>
       <c r="R36">
-        <v>103.909668731238</v>
+        <v>20.52004765795</v>
       </c>
       <c r="S36">
-        <v>0.0001519674124213587</v>
+        <v>3.063604406365637E-05</v>
       </c>
       <c r="T36">
-        <v>0.000174534085667494</v>
+        <v>3.469030913885421E-05</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>0.450118</v>
+        <v>0.08739166666666666</v>
       </c>
       <c r="H37">
-        <v>1.350354</v>
+        <v>0.262175</v>
       </c>
       <c r="I37">
-        <v>0.001254007906653605</v>
+        <v>0.0002614680533974142</v>
       </c>
       <c r="J37">
-        <v>0.001307336105450162</v>
+        <v>0.0002697530322015679</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>24.35245633333333</v>
+        <v>28.889299</v>
       </c>
       <c r="N37">
-        <v>73.05736899999999</v>
+        <v>86.66789700000001</v>
       </c>
       <c r="O37">
-        <v>0.1150551060062118</v>
+        <v>0.1297433842556338</v>
       </c>
       <c r="P37">
-        <v>0.126750214409196</v>
+        <v>0.1424009888122948</v>
       </c>
       <c r="Q37">
-        <v>10.96147893984733</v>
+        <v>2.524683988441667</v>
       </c>
       <c r="R37">
-        <v>98.65331045862598</v>
+        <v>22.722155895975</v>
       </c>
       <c r="S37">
-        <v>0.0001442800126326583</v>
+        <v>3.392375012251327E-05</v>
       </c>
       <c r="T37">
-        <v>0.0001657051316706913</v>
+        <v>3.841309852061807E-05</v>
       </c>
     </row>
   </sheetData>
